--- a/PreReg Template.xlsx
+++ b/PreReg Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AypReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7B98071-9E4B-4560-8E04-B24F715263F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD41C546-8FEE-4A3A-BF7F-2DDE347042CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9FCF1C3-DEF3-4419-8A81-CB9D909F9212}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Salol Alliance Church</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1919A8-A434-4DD5-92A7-C10E5A66545E}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,13 +477,13 @@
     <col min="1" max="1" width="22.77734375" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
     <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +502,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -520,7 +526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
